--- a/Exports/final.xlsx
+++ b/Exports/final.xlsx
@@ -855,16 +855,20 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>INSIDE</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
@@ -883,16 +887,20 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>INSIDE</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2208,7 +2216,6 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>any-ipv6</t>
@@ -2224,13 +2231,11 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>host_10.10.10.10_a</t>
@@ -2254,7 +2259,6 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>host_10.10.10.10_b</t>
@@ -2278,7 +2282,6 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>any-ipv4</t>
@@ -2292,13 +2295,11 @@
       <c r="E5" t="n">
         <v>4294967294</v>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>IPv4-Benchmark-Tests</t>
@@ -2312,13 +2313,11 @@
       <c r="E6" t="n">
         <v>131070</v>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>IPv4-Link-Local</t>
@@ -2332,13 +2331,11 @@
       <c r="E7" t="n">
         <v>65534</v>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>IPv4-Multicast</t>
@@ -2352,13 +2349,11 @@
       <c r="E8" t="n">
         <v>268435454</v>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>IPv4-Private-10.0.0.0-8</t>
@@ -2372,13 +2367,11 @@
       <c r="E9" t="n">
         <v>16777214</v>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>IPv4-Private-172.16.0.0-12</t>
@@ -2392,13 +2385,11 @@
       <c r="E10" t="n">
         <v>1048574</v>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>IPv4-Private-192.168.0.0-16</t>
@@ -2412,13 +2403,11 @@
       <c r="E11" t="n">
         <v>65534</v>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>IPv6-IPv4-Mapped</t>
@@ -2434,13 +2423,11 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>IPv6-Link-Local</t>
@@ -2456,13 +2443,11 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>IPv6-Private-Unique-Local-Addresses</t>
@@ -2478,13 +2463,11 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>IPv6-to-IPv4-Relay-Anycast</t>
@@ -2498,13 +2481,11 @@
       <c r="E15" t="n">
         <v>254</v>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>n_10.10.10.0_24_a</t>
@@ -2528,7 +2509,6 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>n_10.10.10.0_24_b</t>
@@ -2552,7 +2532,6 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>test_A</t>
@@ -2576,7 +2555,6 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>r-10.10.10.10-10.10.10.20</t>
@@ -2600,7 +2578,6 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>r-10.10.10.10-10.10.10.20_b</t>
@@ -2629,7 +2606,6 @@
           <t>any</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>0.0.0.0/0</t>
@@ -2638,7 +2614,6 @@
       <c r="E21" t="n">
         <v>4294967294</v>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -2649,7 +2624,6 @@
           <t>any</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>::/0</t>
@@ -2660,7 +2634,6 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -2671,7 +2644,6 @@
           <t>IPv4-Private-All-RFC1918</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>10.0.0.0/8</t>
@@ -2680,7 +2652,6 @@
       <c r="E23" t="n">
         <v>16777214</v>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -2691,7 +2662,6 @@
           <t>IPv4-Private-All-RFC1918</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>172.16.0.0/12</t>
@@ -2700,7 +2670,6 @@
       <c r="E24" t="n">
         <v>1048574</v>
       </c>
-      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -2711,7 +2680,6 @@
           <t>IPv4-Private-All-RFC1918</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>192.168.0.0/16</t>
@@ -2720,7 +2688,6 @@
       <c r="E25" t="n">
         <v>65534</v>
       </c>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">

--- a/Exports/final.xlsx
+++ b/Exports/final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3705" yWindow="2640" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="3" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="access_rules_of_TEST-ACPv50" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ports" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="networks" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="policies information" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -448,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J1"/>
+  <dimension ref="B1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +501,36 @@
       <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Destination Ports</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Destination Port Category</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Destination Port Category</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Source Network Category</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Destination Network Category</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Source Network Category</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Destination Network Category</t>
         </is>
       </c>
     </row>
@@ -514,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +599,36 @@
           <t>Destination Ports</t>
         </is>
       </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Destination Port Category</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Destination Port Category</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Source Network Category</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Destination Network Category</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Source Network Category</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Destination Network Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -594,6 +655,36 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>['DMZ1']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -644,6 +735,36 @@
           <t xml:space="preserve">FTP - TCP 21, None - 6 123, </t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -690,6 +811,36 @@
       <c r="J4" t="inlineStr">
         <is>
           <t xml:space="preserve">Test_group: (FTP - TCP 21, HTTPS - TCP 443, LDAP - TCP 389, ), </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -704,7 +855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,6 +909,36 @@
           <t>Destination Ports</t>
         </is>
       </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Destination Port Category</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Destination Port Category</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Source Network Category</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Destination Network Category</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Source Network Category</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Relative Destination Network Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -784,6 +965,36 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>['INSIDE']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -812,6 +1023,36 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>['OUTSIDE']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -826,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +1111,11 @@
           <t>Equal with</t>
         </is>
       </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Count of Port object in Rules</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -894,6 +1140,9 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -922,6 +1171,9 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -948,6 +1200,9 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -974,6 +1229,9 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -998,7 +1256,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1285,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1052,6 +1316,9 @@
       <c r="G8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1078,6 +1345,9 @@
       <c r="G9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1104,6 +1374,9 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1130,6 +1403,9 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1156,6 +1432,9 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1182,6 +1461,9 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1208,6 +1490,9 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1234,6 +1519,9 @@
       <c r="G15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1260,6 +1548,9 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1286,6 +1577,9 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1312,6 +1606,9 @@
       <c r="G18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1338,6 +1635,9 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1364,6 +1664,9 @@
       <c r="G20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1390,6 +1693,9 @@
       <c r="G21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1416,6 +1722,9 @@
       <c r="G22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1442,6 +1751,9 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1468,6 +1780,9 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1494,6 +1809,9 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1518,6 +1836,9 @@
         <v>1</v>
       </c>
       <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1546,6 +1867,9 @@
       <c r="G27" t="b">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1572,6 +1896,9 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1598,6 +1925,9 @@
       <c r="G29" t="b">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1629,6 +1959,9 @@
           <t xml:space="preserve">Test_port_b, </t>
         </is>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1660,6 +1993,9 @@
           <t xml:space="preserve">Test_port_a, </t>
         </is>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1684,6 +2020,9 @@
         <v>1</v>
       </c>
       <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1712,6 +2051,9 @@
       <c r="G33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1738,6 +2080,9 @@
       <c r="G34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1764,6 +2109,9 @@
       <c r="G35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1793,7 +2141,10 @@
         <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1826,6 +2177,9 @@
       <c r="G37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1857,6 +2211,9 @@
       <c r="G38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1893,6 +2250,9 @@
           <t xml:space="preserve">Test_grp_b, </t>
         </is>
       </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1929,6 +2289,9 @@
           <t xml:space="preserve">Test_grp_b, </t>
         </is>
       </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1965,6 +2328,9 @@
           <t xml:space="preserve">Test_grp_a, </t>
         </is>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2001,6 +2367,9 @@
           <t xml:space="preserve">Test_grp_a, </t>
         </is>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2032,6 +2401,9 @@
       <c r="G43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2063,6 +2435,9 @@
       <c r="G44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2094,6 +2469,9 @@
       <c r="G45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2125,6 +2503,9 @@
       <c r="G46" t="b">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2154,6 +2535,9 @@
         <v>1</v>
       </c>
       <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2187,6 +2571,9 @@
       <c r="G48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2216,6 +2603,9 @@
         <v>1</v>
       </c>
       <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2230,7 +2620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,6 +2659,11 @@
           <t>Equal with</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Count of Network object in Rules</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -2290,6 +2685,9 @@
         <v>3.402823669209385e+38</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -2315,6 +2713,9 @@
           <t xml:space="preserve">host_10.10.10.10_b, </t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -2340,6 +2741,9 @@
           <t xml:space="preserve">host_10.10.10.10_a, </t>
         </is>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -2361,6 +2765,9 @@
         <v>4294967296</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2382,6 +2789,9 @@
         <v>65536</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2403,6 +2813,9 @@
         <v>131072</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2424,6 +2837,9 @@
         <v>65536</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2445,6 +2861,9 @@
         <v>268435456</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2466,6 +2885,9 @@
         <v>16777216</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2487,6 +2909,9 @@
         <v>1048576</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2508,6 +2933,9 @@
         <v>65536</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2529,6 +2957,9 @@
         <v>4294967296</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2550,6 +2981,9 @@
         <v>3.32306998946229e+35</v>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2571,6 +3005,9 @@
         <v>2.658455991569832e+36</v>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2592,6 +3029,9 @@
         <v>256</v>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2617,6 +3057,9 @@
           <t xml:space="preserve">n_10.10.10.0_24_b, test_A, </t>
         </is>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2642,6 +3085,9 @@
           <t xml:space="preserve">n_10.10.10.0_24_a, test_A, </t>
         </is>
       </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2667,6 +3113,9 @@
           <t xml:space="preserve">n_10.10.10.0_24_a, n_10.10.10.0_24_b, </t>
         </is>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2692,6 +3141,9 @@
           <t xml:space="preserve">r-10.10.10.10-10.10.10.20_b, </t>
         </is>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2717,6 +3169,9 @@
           <t xml:space="preserve">r-10.10.10.10-10.10.10.20, </t>
         </is>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2740,6 +3195,9 @@
         <v>4294967296</v>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2763,6 +3221,9 @@
         <v>3.402823669209385e+38</v>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2786,6 +3247,9 @@
         <v>16777216</v>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2809,6 +3273,9 @@
         <v>1048576</v>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2832,6 +3299,9 @@
         <v>65536</v>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2863,6 +3333,9 @@
           <t xml:space="preserve">Test_grp2, </t>
         </is>
       </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2894,6 +3367,9 @@
           <t xml:space="preserve">Test_grp2, </t>
         </is>
       </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2925,6 +3401,9 @@
           <t xml:space="preserve">Test_grp2, </t>
         </is>
       </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2956,6 +3435,9 @@
           <t xml:space="preserve">Test_grp2, </t>
         </is>
       </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2987,6 +3469,9 @@
           <t xml:space="preserve">Test_grp, </t>
         </is>
       </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -3018,6 +3503,9 @@
           <t xml:space="preserve">Test_grp, </t>
         </is>
       </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -3049,6 +3537,9 @@
           <t xml:space="preserve">Test_grp, </t>
         </is>
       </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -3080,6 +3571,9 @@
           <t xml:space="preserve">Test_grp, </t>
         </is>
       </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -3107,6 +3601,9 @@
         <v>256</v>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -3134,6 +3631,9 @@
         <v>256</v>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3161,6 +3661,9 @@
         <v>65536</v>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3188,6 +3691,9 @@
         <v>1048576</v>
       </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3215,6 +3721,9 @@
         <v>1</v>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3242,6 +3751,9 @@
         <v>1</v>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3273,6 +3785,9 @@
           <t xml:space="preserve">Test_Tricky01, </t>
         </is>
       </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3304,6 +3819,9 @@
           <t xml:space="preserve">Test_Tricky01, </t>
         </is>
       </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3331,6 +3849,9 @@
         <v>65536</v>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3358,6 +3879,9 @@
         <v>1048576</v>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3389,6 +3913,9 @@
           <t xml:space="preserve">Test_grp4, </t>
         </is>
       </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3420,6 +3947,9 @@
           <t xml:space="preserve">Test_grp4, </t>
         </is>
       </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3447,6 +3977,125 @@
         <v>1</v>
       </c>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Count Of Enabled Rules</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Count Of Allowed Rules</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Ratio Of Enabled Rules</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Ratio Of Allowed Rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>andromeda-acp</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TEST-ACP</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TEST-ACPv50</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Exports/final.xlsx
+++ b/Exports/final.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3705" yWindow="2640" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="3" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="policies information" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="access_rules_of_andromeda-acp" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="access_rules_of_TEST-ACP" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="access_rules_of_TEST-ACPv50" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ports" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="networks" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="policies information" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -32,8 +31,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -90,9 +92,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -175,44 +177,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -239,15 +241,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -274,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,142 +286,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -431,14 +455,112 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Count Of Enabled Rules</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Count Of Allowed Rules</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio Of Enabled Rules</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ratio Of Allowed Rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>andromeda-acp</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TEST-ACP</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TEST-ACPv50</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3984,120 +4106,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Count Of Enabled Rules</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Count Of Allowed Rules</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Ratio Of Enabled Rules</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Ratio Of Allowed Rules</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>andromeda-acp</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TEST-ACP</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TEST-ACPv50</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>